--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1854345.462901147</v>
+        <v>1929875.132565952</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>151.5236087740384</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>132.3401402600194</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>152.3925105866801</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>88.06311349350429</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>289.3077638031654</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>142.9299904103435</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>78.08506320366507</v>
       </c>
       <c r="J7" t="n">
-        <v>33.44111686754128</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>24.39769375563018</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>224.1239018360523</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>102.6951623564298</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>51.95471194784008</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>101.1426547140137</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.29597424624112</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185922</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>49.15010423076747</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>174.1677741775049</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.94693702850448</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>66.14085215535448</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>76.46685224706746</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2713,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>30.44016618184761</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>141.5684775505175</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2846,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>106.2663625029425</v>
+        <v>103.5829843530779</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>12.25677756260412</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.544678587665</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>132.6781274168082</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>167.7998565704446</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>53.76456705915104</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>39.53928166092106</v>
       </c>
       <c r="T43" t="n">
-        <v>18.82095176854864</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>123.3771255379762</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>20.6629381430201</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>624.9609401989841</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>206.9971320971709</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2508.443492195161</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2508.443492195161</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2508.443492195161</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2508.443492195161</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2508.443492195161</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>2508.443492195161</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>559.1928012785276</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>411.2797076961344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>411.2797076961344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>491.0296857481896</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>491.0296857481896</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1250.638474227115</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1250.638474227115</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>892.3727756203643</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>506.5845230221201</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>499.6390222729166</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>2497.746673861499</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X5" t="n">
-        <v>2497.746673861499</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1250.638474227115</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600561</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="E7" t="n">
-        <v>550.798971477663</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="F7" t="n">
-        <v>550.798971477663</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="G7" t="n">
-        <v>381.7991712159954</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="H7" t="n">
-        <v>224.0507986485256</v>
+        <v>132.8167830361878</v>
       </c>
       <c r="I7" t="n">
-        <v>87.72188774717381</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>290.5651556036576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1773.985778385634</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C8" t="n">
-        <v>1773.985778385634</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646714</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1773.985778385634</v>
+        <v>1731.901079302655</v>
       </c>
       <c r="Y8" t="n">
-        <v>1773.985778385634</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>380.6911546495019</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V10" t="n">
-        <v>380.6911546495019</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6911546495019</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6911546495019</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5036,37 +5038,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845924</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528587</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932103</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653034</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>911.6562348067655</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.75197286698</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845924</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954972</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>3540.192194764783</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>3870.054822428816</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.010087623274</v>
+        <v>4350.092662819068</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1449.269700627834</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1449.269700627834</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1449.269700627834</v>
       </c>
       <c r="U19" t="n">
-        <v>788.2086972010437</v>
+        <v>1160.141061841392</v>
       </c>
       <c r="V19" t="n">
-        <v>533.5242089951569</v>
+        <v>905.4565736355055</v>
       </c>
       <c r="W19" t="n">
-        <v>244.1070389581962</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="X19" t="n">
-        <v>244.1070389581962</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4458.413529040523</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="C22" t="n">
-        <v>4289.477346112616</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="D22" t="n">
-        <v>4139.36070670028</v>
+        <v>3775.243809179247</v>
       </c>
       <c r="E22" t="n">
-        <v>3991.447613117887</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F22" t="n">
-        <v>3844.557665619977</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G22" t="n">
-        <v>3676.382343939797</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>3525.964335487741</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
         <v>4411.546387431056</v>
@@ -5932,28 +5934,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014292</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="X22" t="n">
-        <v>4860.854573014292</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="Y22" t="n">
-        <v>4640.061993870762</v>
+        <v>3782.260917288848</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201016</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201016</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201016</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F25" t="n">
-        <v>213.9110074201016</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>4159.626170885173</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>4159.626170885173</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>4159.626170885173</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>3938.833591741643</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>2525.058920465857</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>3138.955990222746</v>
       </c>
       <c r="M27" t="n">
-        <v>3484.747546292012</v>
+        <v>3446.276123502707</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>4250.687701766858</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>4530.227766985555</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>4773.721670557068</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.0926555785013</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0926555785013</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1044.92269486304</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>755.7940560765983</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>755.7940560765983</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0822064765186</v>
+        <v>755.7940560765983</v>
       </c>
       <c r="X28" t="n">
-        <v>558.0926555785013</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="Y28" t="n">
-        <v>558.0926555785013</v>
+        <v>527.8045051785809</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6461,19 +6463,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>991.0842369787848</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C31" t="n">
-        <v>822.1480540508779</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1280.501407015745</v>
+        <v>1283.211889995407</v>
       </c>
       <c r="T31" t="n">
-        <v>1280.501407015745</v>
+        <v>1283.211889995407</v>
       </c>
       <c r="U31" t="n">
-        <v>1280.501407015745</v>
+        <v>994.083251208965</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.501407015745</v>
+        <v>994.083251208965</v>
       </c>
       <c r="W31" t="n">
-        <v>991.0842369787848</v>
+        <v>994.083251208965</v>
       </c>
       <c r="X31" t="n">
-        <v>991.0842369787848</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="Y31" t="n">
-        <v>991.0842369787848</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,67 +6685,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465857</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>3138.955990222746</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>3907.324136615207</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>4289.159124556161</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>4568.699189774858</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557068</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3941.006808105545</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C34" t="n">
-        <v>3772.070625177638</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D34" t="n">
-        <v>3621.953985765302</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>3609.573402368732</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368732</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1451.901443701671</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1251.981433617224</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1251.981433617224</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>962.8527948307819</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>962.8527948307819</v>
       </c>
       <c r="W34" t="n">
-        <v>4571.437402977332</v>
+        <v>962.8527948307819</v>
       </c>
       <c r="X34" t="n">
-        <v>4343.447852079315</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="Y34" t="n">
-        <v>4122.655272935785</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6938,13 +6940,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6953,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6980,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>414.0663679705859</v>
+        <v>3741.086798021097</v>
       </c>
       <c r="C37" t="n">
-        <v>245.130185042679</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V37" t="n">
-        <v>816.5074119443557</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W37" t="n">
-        <v>816.5074119443557</v>
+        <v>4371.517392892884</v>
       </c>
       <c r="X37" t="n">
-        <v>816.5074119443557</v>
+        <v>4143.527841994867</v>
       </c>
       <c r="Y37" t="n">
-        <v>595.7148328008255</v>
+        <v>3922.735262851337</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>931.4060418163556</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164471</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>581.2185435662825</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="C43" t="n">
-        <v>412.2823606383756</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383756</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1347.902498775363</v>
       </c>
       <c r="T43" t="n">
-        <v>1279.985198080981</v>
+        <v>1347.902498775363</v>
       </c>
       <c r="U43" t="n">
-        <v>990.8565592945396</v>
+        <v>1058.773859988921</v>
       </c>
       <c r="V43" t="n">
-        <v>990.8565592945396</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="W43" t="n">
-        <v>990.8565592945396</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="X43" t="n">
-        <v>762.8670083965222</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.8670083965222</v>
+        <v>804.0893717830344</v>
       </c>
     </row>
     <row r="44">
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7673,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>2936.144514477368</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>3243.46464775733</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>3573.327275421363</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>4242.791036724022</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1374.292911428633</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1150.507496218139</v>
+        <v>1167.049502345361</v>
       </c>
       <c r="U46" t="n">
-        <v>1150.507496218139</v>
+        <v>877.9208635589189</v>
       </c>
       <c r="V46" t="n">
-        <v>895.8230080122524</v>
+        <v>623.236375353032</v>
       </c>
       <c r="W46" t="n">
-        <v>895.8230080122524</v>
+        <v>623.236375353032</v>
       </c>
       <c r="X46" t="n">
-        <v>667.8334571142351</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.040877970705</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863221</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863221</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>202.5230052237932</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7151863772038</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,10 +9959,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>38.86002301949893</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10428,25 +10430,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>52.49733361305215</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305246</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>403.7628319612157</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>165.9802687929759</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>234.2826404507373</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>124.5670006750235</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.3194987719712</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>60.81424817302533</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>112.0695782210725</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6685359897079</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>44.27839330891752</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>175.6707910767605</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>118.1753068363647</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>79.97908350787176</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>91.65444748066071</v>
+        <v>94.33782563052536</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>134.177185083965</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>63.4196738161278</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>34.56869368181961</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25360,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>84.3377867533834</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>171.9450883298861</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>158.3815283226822</v>
       </c>
       <c r="T43" t="n">
-        <v>202.7266092898406</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>74.54368444562702</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>200.8846229153691</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
@@ -26332,19 +26334,19 @@
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="J2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="L2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="K2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="N2" t="n">
         <v>488786.3246721359</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
@@ -26436,28 +26438,28 @@
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007546</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007488</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.899828698</v>
+        <v>-307592.8998286978</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.9793858469</v>
+        <v>282374.9793858468</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.979385847</v>
+        <v>282374.9793858466</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094848</v>
+        <v>-136277.7694094843</v>
       </c>
       <c r="F6" t="n">
+        <v>388882.2670674118</v>
+      </c>
+      <c r="G6" t="n">
         <v>388882.2670674119</v>
       </c>
-      <c r="G6" t="n">
-        <v>388882.267067412</v>
-      </c>
       <c r="H6" t="n">
-        <v>388882.2670674119</v>
+        <v>388882.2670674118</v>
       </c>
       <c r="I6" t="n">
-        <v>388882.267067412</v>
+        <v>388882.2670674118</v>
       </c>
       <c r="J6" t="n">
-        <v>212459.0478748188</v>
+        <v>212459.047874819</v>
       </c>
       <c r="K6" t="n">
         <v>388882.2670674119</v>
       </c>
       <c r="L6" t="n">
-        <v>388882.2670674118</v>
+        <v>388882.2670674117</v>
       </c>
       <c r="M6" t="n">
-        <v>254081.2518335744</v>
+        <v>254081.2518335746</v>
       </c>
       <c r="N6" t="n">
         <v>388882.2670674118</v>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26790,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>172.3991639903187</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>42.07557254895212</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>14.91729167237079</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>124.0824254565146</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>124.4764062176296</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>206.3109783070695</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27780,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>56.88055858867315</v>
       </c>
       <c r="J7" t="n">
-        <v>11.75884232099573</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>330.2853478650528</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>145.6071988424167</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>183.5867118855479</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>62.45749068994752</v>
       </c>
     </row>
     <row r="11">
@@ -29341,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29803,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29943,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-3.582082778545252e-12</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178469</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178469</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>484.8867074649013</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>245.9534379510236</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>385.691907011065</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37239,7 +37241,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515205992</v>
       </c>
       <c r="P34" t="n">
         <v>178.3836006118007</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37561,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,7 +37867,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>714.1872090116819</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>415.2379737490002</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,16 +38110,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1929875.132565952</v>
+        <v>1922858.117674242</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>151.5236087740384</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>103.2322259117931</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>136.128638728132</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>88.06311349350429</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>289.3077638031654</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>10.29095677511125</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>78.08506320366507</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>263.2135161419533</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>224.1239018360523</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>43.31785343913986</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.1271626621473</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>100.1380520687122</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>51.95471194784008</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>19.29597424624112</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>216.4561158141381</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.15010423076747</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>143.3392773670865</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6.94693702850448</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>101.289814786355</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>76.46685224706746</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>141.5684775505175</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>103.5829843530779</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.544678587665</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>86.19053366520818</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>132.6781274168082</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>85.39633870205157</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>53.76456705915104</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>54.40320730981925</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>39.53928166092106</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>20.6629381430201</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>631.9064409481875</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C2" t="n">
-        <v>631.9064409481875</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="D2" t="n">
-        <v>631.9064409481875</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="E2" t="n">
-        <v>631.9064409481875</v>
+        <v>987.167670380263</v>
       </c>
       <c r="F2" t="n">
-        <v>624.9609401989841</v>
+        <v>576.1817655906555</v>
       </c>
       <c r="G2" t="n">
-        <v>206.9971320971709</v>
+        <v>158.2179574888423</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>158.2179574888423</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.506281012309</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>491.0296857481896</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>491.0296857481896</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.638474227115</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C5" t="n">
-        <v>1250.638474227115</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="D5" t="n">
-        <v>892.3727756203643</v>
+        <v>470.995045062667</v>
       </c>
       <c r="E5" t="n">
-        <v>506.5845230221201</v>
+        <v>85.20679246442273</v>
       </c>
       <c r="F5" t="n">
-        <v>499.6390222729166</v>
+        <v>78.26129171521926</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>64.33788765381016</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>64.33788765381016</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202927</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202927</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1250.638474227115</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.5651556036576</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>290.5651556036576</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>290.5651556036576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>290.5651556036576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>132.8167830361878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>290.5651556036576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>290.5651556036576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.5651556036576</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.901079302655</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1731.901079302655</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464715</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6471865296041</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648868</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>911.6562348067655</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>656.9717466008786</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>656.9717466008786</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X13" t="n">
-        <v>428.9821957028613</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.9821957028613</v>
+        <v>526.9050513325897</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5366,16 +5366,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.274692278279</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2520.760934363148</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.1556594977427</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C16" t="n">
-        <v>376.1556594977427</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>785.7936752259998</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>557.8041243279824</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y16" t="n">
-        <v>557.8041243279824</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764783</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>3870.054822428816</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4350.092662819068</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.115143601278</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1449.269700627834</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1449.269700627834</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1449.269700627834</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1160.141061841392</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>905.4565736355055</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>616.0394035985448</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X19" t="n">
-        <v>616.0394035985448</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.2468244550147</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3782.260917288848</v>
+        <v>199.5300356889273</v>
       </c>
       <c r="C22" t="n">
-        <v>3782.260917288848</v>
+        <v>199.5300356889273</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.243809179247</v>
+        <v>199.5300356889273</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>199.5300356889273</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>199.5300356889273</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W22" t="n">
-        <v>3782.260917288848</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X22" t="n">
-        <v>3782.260917288848</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y22" t="n">
-        <v>3782.260917288848</v>
+        <v>199.5300356889273</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4236.865415579181</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4159.626170885173</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4159.626170885173</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4159.626170885173</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3938.833591741643</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3138.955990222746</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3446.276123502707</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>4250.687701766858</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4530.227766985555</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557068</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1044.92269486304</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>755.7940560765983</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>755.7940560765983</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>755.7940560765983</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1283.211889995407</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1283.211889995407</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>994.083251208965</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>994.083251208965</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>994.083251208965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>766.0937003109476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>766.0937003109476</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3138.955990222746</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3907.324136615207</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556161</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557068</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.8632439327646</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>565.9270610048577</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6873,37 +6873,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1451.901443701671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1251.981433617224</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1251.981433617224</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>962.8527948307819</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>962.8527948307819</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>962.8527948307819</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X34" t="n">
-        <v>734.8632439327646</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y34" t="n">
-        <v>734.8632439327646</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3741.086798021097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4660.934562929845</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4660.934562929845</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4371.517392892884</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4143.527841994867</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3922.735262851337</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,13 +7165,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7180,25 +7180,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>710.6134626728254</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C40" t="n">
-        <v>710.6134626728254</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>985.7136853104475</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>931.4060418163556</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y40" t="n">
-        <v>710.6134626728254</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.0893717830344</v>
+        <v>152.1698261166689</v>
       </c>
       <c r="C43" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1347.902498775363</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1347.902498775363</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1058.773859988921</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>804.0893717830344</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W43" t="n">
-        <v>804.0893717830344</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X43" t="n">
-        <v>804.0893717830344</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y43" t="n">
-        <v>804.0893717830344</v>
+        <v>333.8182909469086</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>2936.144514477368</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3243.46464775733</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>3573.327275421363</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4242.791036724022</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4763.091658459769</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1167.049502345361</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>877.9208635589189</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>623.236375353032</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>623.236375353032</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139963</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>15.83804904622872</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>202.5230052237932</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>38.86002301949893</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>52.49733361305215</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>32.92248665775634</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>52.49733361305246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>403.7628319612157</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>165.9802687929759</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>67.10876902991565</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>234.2826404507373</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>129.3194987719712</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>2.128537537956674</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>60.81424817302533</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>143.1837209695045</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>141.6685359897079</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.20375367702259</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>175.6707910767605</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>79.97908350787176</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>94.33782563052536</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.4196738161278</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>139.519121723829</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.56869368181961</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>63.21913431616079</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>171.9450883298861</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>112.8436137888086</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>158.3815283226822</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>200.8846229153691</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
@@ -26337,13 +26337,13 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
@@ -26355,7 +26355,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
@@ -26441,22 +26441,22 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007546</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="N4" t="n">
-        <v>7916.731656007488</v>
-      </c>
       <c r="O4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007483</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-307592.8998286978</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.9793858468</v>
+        <v>282374.9793858466</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.9793858466</v>
+        <v>282374.9793858471</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094843</v>
+        <v>-137252.360669206</v>
       </c>
       <c r="F6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.67580769</v>
       </c>
       <c r="G6" t="n">
-        <v>388882.2670674119</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="H6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="I6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="J6" t="n">
-        <v>212459.047874819</v>
+        <v>211484.4566150972</v>
       </c>
       <c r="K6" t="n">
-        <v>388882.2670674119</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="L6" t="n">
-        <v>388882.2670674117</v>
+        <v>387907.6758076902</v>
       </c>
       <c r="M6" t="n">
-        <v>254081.2518335746</v>
+        <v>253106.660573853</v>
       </c>
       <c r="N6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="O6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="P6" t="n">
-        <v>388882.2670674119</v>
+        <v>387907.6758076901</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,7 +26752,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>172.3991639903187</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>48.69909033306816</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10.30532391843713</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>124.0824254565146</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>124.4764062176296</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>141.64035946975</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>56.88055858867315</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.46952547872962</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>145.6071988424167</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>123.928967659488</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.45749068994752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29945,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,13 +34786,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700205</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.8510818313028</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>484.8867074649013</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36214,16 +36214,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>245.9534379510236</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>510.1640057735818</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>385.691907011065</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515205992</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>240.015901589281</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>714.1872090116819</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>415.2379737490002</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1922858.117674242</v>
+        <v>1927797.380523273</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>312.8345196672025</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>103.2322259117931</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E4" t="n">
-        <v>136.128638728132</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>10.29095677511125</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>121.1693910461994</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2135161419533</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>163.1482332545351</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586903</v>
       </c>
       <c r="C10" t="n">
-        <v>43.31785343913986</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>100.1380520687122</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>28.30910107930799</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.4561158141381</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>143.3392773670865</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>23.39375411340989</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>101.289814786355</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>77.89561362600448</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>170.5105366987441</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>86.19053366520818</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>85.39633870205157</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>54.40320730981925</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>80.676222808245</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1372.955922978507</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C2" t="n">
-        <v>1372.955922978507</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="D2" t="n">
-        <v>1372.955922978507</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="E2" t="n">
-        <v>987.167670380263</v>
+        <v>537.3268261969895</v>
       </c>
       <c r="F2" t="n">
-        <v>576.1817655906555</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>158.2179574888423</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>158.2179574888423</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629041</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1198.223260609829</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>829.2607436694175</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>470.995045062667</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>85.20679246442273</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>78.26129171521926</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>64.33788765381016</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>64.33788765381016</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,28 +4649,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>494.150101163113</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2301.146718656286</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2047.384933294377</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464715</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>500.139433308417</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648868</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>345.2565865023499</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>754.894602230607</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>526.9050513325897</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y13" t="n">
-        <v>526.9050513325897</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5357,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229244</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.8670083965222</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>641.2950576208757</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>199.5300356889273</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C22" t="n">
-        <v>199.5300356889273</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>199.5300356889273</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>420.3226148324574</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>420.3226148324574</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>199.5300356889273</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,61 +5980,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>996.5284072568953</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6229,19 +6229,19 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,25 +6457,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>926.4796629810191</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,37 +6685,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>754.894602230607</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>667.8334571142351</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.040877970705</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6961,7 +6961,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.1698261166689</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V43" t="n">
-        <v>844.0280401273993</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W43" t="n">
-        <v>554.6108700904388</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X43" t="n">
-        <v>554.6108700904388</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y43" t="n">
-        <v>333.8182909469086</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7657,28 +7657,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>178.7082256100283</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>178.7082256100283</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>178.7082256100283</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>178.7082256100283</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>326.6213191924214</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451747</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>67.10876902991565</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>197.4005543097292</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.128537537956674</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="17">
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>143.1837209695045</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>156.4382260685274</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.20375367702259</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>208.3417387725729</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>81.62710662508388</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>139.519121723829</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>63.21913431616079</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>112.8436137888086</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>29.74302265602698</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>886944.3223752767</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752766</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651767</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651769</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
@@ -26340,13 +26340,13 @@
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="L2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>488786.324672136</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
         <v>488786.3246721359</v>
@@ -26355,7 +26355,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007482</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="N4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.8998286978</v>
+        <v>-307592.899828698</v>
       </c>
       <c r="C6" t="n">
         <v>282374.9793858466</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.9793858471</v>
+        <v>282374.9793858467</v>
       </c>
       <c r="E6" t="n">
-        <v>-137252.360669206</v>
+        <v>-136375.228535456</v>
       </c>
       <c r="F6" t="n">
-        <v>387907.67580769</v>
+        <v>388784.8079414395</v>
       </c>
       <c r="G6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414395</v>
       </c>
       <c r="H6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414395</v>
       </c>
       <c r="I6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="J6" t="n">
-        <v>211484.4566150972</v>
+        <v>212361.5887488467</v>
       </c>
       <c r="K6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="L6" t="n">
-        <v>387907.6758076902</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="M6" t="n">
-        <v>253106.660573853</v>
+        <v>253983.7927076026</v>
       </c>
       <c r="N6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="O6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="P6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414397</v>
       </c>
     </row>
   </sheetData>
@@ -26743,28 +26743,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94.04152607450891</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>48.69909033306816</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E4" t="n">
-        <v>10.30532391843713</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>141.64035946975</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>206.5828674239355</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.46952547872962</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>53.30008710312265</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060683</v>
       </c>
       <c r="C10" t="n">
-        <v>123.928967659488</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355116</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35506,7 +35506,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
